--- a/Data/GP2_INITIAL_WEIGHT.xlsx
+++ b/Data/GP2_INITIAL_WEIGHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B178F3-8BC6-4784-ABC1-D401DFC33256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE66A75-E146-4F4A-995F-49EB88C4D38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D55D7C9-8C16-44D8-8BF6-2ADAB78CA17C}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE882B2-CB05-4E34-88CB-C2794A9869F7}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
